--- a/score.xlsx
+++ b/score.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sorby\Desktop\Diary\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D681C8EB-DF0B-4D40-8DB0-B29EB7C4585B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="18000" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -76,6 +70,9 @@
     <t>****</t>
   </si>
   <si>
+    <t>Janhvi Tripathi</t>
+  </si>
+  <si>
     <t>Manish Kumar</t>
   </si>
   <si>
@@ -104,16 +101,13 @@
   </si>
   <si>
     <t>**</t>
-  </si>
-  <si>
-    <t>Janhvi Tripathi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,14 +170,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -230,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,27 +248,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,24 +282,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,16 +457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -577,15 +525,15 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>65</v>
@@ -597,7 +545,7 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="F3">
-        <v>0.27272727272727271</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G3">
         <v>0.1818181818181818</v>
@@ -612,33 +560,33 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="K3">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L3">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="M3">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N3">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="O3">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P3">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>35</v>
@@ -656,13 +604,13 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="H4">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="I4">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J4">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -686,21 +634,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
       <c r="D5">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E5">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F5">
         <v>0.1818181818181818</v>
@@ -709,13 +657,13 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="H5">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="I5">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J5">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -739,12 +687,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>37</v>
@@ -753,7 +701,7 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="E6">
-        <v>0.27272727272727271</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F6">
         <v>0.1818181818181818</v>
@@ -768,22 +716,22 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="J6">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K6">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L6">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="M6">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N6">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="O6">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -792,27 +740,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>64</v>
       </c>
       <c r="D7">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E7">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F7">
-        <v>0.27272727272727271</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G7">
-        <v>0.27272727272727271</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="H7">
         <v>0.1818181818181818</v>
@@ -833,33 +781,33 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="N7">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="O7">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P7">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>24</v>
       </c>
       <c r="D8">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E8">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F8">
         <v>0.1818181818181818</v>
@@ -868,19 +816,19 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="H8">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="I8">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J8">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K8">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L8">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -898,21 +846,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>35</v>
       </c>
       <c r="D9">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E9">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F9">
         <v>0.1818181818181818</v>
@@ -930,13 +878,13 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="K9">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L9">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="M9">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -951,21 +899,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>48</v>
       </c>
       <c r="D10">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E10">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F10">
         <v>0.1818181818181818</v>
@@ -974,7 +922,7 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="H10">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1004,21 +952,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>32</v>
       </c>
       <c r="D11">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E11">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F11">
         <v>0.1818181818181818</v>
@@ -1036,13 +984,13 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="K11">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L11">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="M11">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1057,36 +1005,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>70</v>
       </c>
       <c r="D12">
-        <v>0.27272727272727271</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E12">
-        <v>0.27272727272727271</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F12">
-        <v>0.27272727272727271</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G12">
-        <v>0.27272727272727271</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="H12">
-        <v>0.27272727272727271</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="I12">
-        <v>0.27272727272727271</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="J12">
-        <v>0.27272727272727271</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K12">
         <v>0.1818181818181818</v>
@@ -1098,13 +1046,13 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="N12">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="O12">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P12">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="Q12">
         <v>0</v>

--- a/score.xlsx
+++ b/score.xlsx
@@ -569,7 +569,7 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="N3">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0.09090909090909091</v>

--- a/score.xlsx
+++ b/score.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sorby\Desktop\Diary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B77BC6-085C-4330-ADF4-BDCCF2B78775}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -70,50 +76,76 @@
     <t>****</t>
   </si>
   <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Manish Kumar</t>
+  </si>
+  <si>
+    <t>Hrithik Mehrotra</t>
+  </si>
+  <si>
+    <t>Arham Khan</t>
+  </si>
+  <si>
+    <t>Mudit Jantwal</t>
+  </si>
+  <si>
+    <t>Anirudh Batra</t>
+  </si>
+  <si>
+    <t>Nikitha Mary</t>
+  </si>
+  <si>
+    <t>Riya Thakur</t>
+  </si>
+  <si>
+    <t>Amritpal Singh</t>
+  </si>
+  <si>
+    <t>Priyesh Bhawsar</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
     <t>Janhvi Tripathi</t>
-  </si>
-  <si>
-    <t>Manish Kumar</t>
-  </si>
-  <si>
-    <t>Hrithik Mehrotra</t>
-  </si>
-  <si>
-    <t>Arham Khan</t>
-  </si>
-  <si>
-    <t>Mudit Jantwal</t>
-  </si>
-  <si>
-    <t>Anirudh Batra</t>
-  </si>
-  <si>
-    <t>Nikitha Mary</t>
-  </si>
-  <si>
-    <t>Riya Thakur</t>
-  </si>
-  <si>
-    <t>Amritpal Singh</t>
-  </si>
-  <si>
-    <t>Priyesh Bhawsar</t>
-  </si>
-  <si>
-    <t>**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -159,9 +191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -170,6 +205,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -457,67 +500,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -525,33 +579,33 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>65</v>
       </c>
-      <c r="D3">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="E3">
-        <v>0.1818181818181818</v>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>0.2727272727272727</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="G3">
         <v>0.1818181818181818</v>
       </c>
       <c r="H3">
-        <v>0.1818181818181818</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="I3">
         <v>0.1818181818181818</v>
@@ -560,28 +614,34 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="K3">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L3">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="M3">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O3">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="P3">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="Q3">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="R3">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="S3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -591,32 +651,32 @@
       <c r="C4">
         <v>35</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I4">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="J4">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -633,8 +693,14 @@
       <c r="Q4">
         <v>0</v>
       </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -644,32 +710,32 @@
       <c r="C5">
         <v>25</v>
       </c>
-      <c r="D5">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="E5">
-        <v>0.09090909090909091</v>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>0.1818181818181818</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="G5">
-        <v>0.1818181818181818</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="H5">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I5">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="J5">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -686,8 +752,14 @@
       <c r="Q5">
         <v>0</v>
       </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -697,11 +769,11 @@
       <c r="C6">
         <v>37</v>
       </c>
-      <c r="D6">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="E6">
-        <v>0.2727272727272727</v>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
       </c>
       <c r="F6">
         <v>0.1818181818181818</v>
@@ -710,37 +782,43 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="H6">
-        <v>0.1818181818181818</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="I6">
         <v>0.1818181818181818</v>
       </c>
       <c r="J6">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K6">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L6">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="M6">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="N6">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O6">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="Q6">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="R6">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="S6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -750,23 +828,23 @@
       <c r="C7">
         <v>64</v>
       </c>
-      <c r="D7">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="E7">
-        <v>0.09090909090909091</v>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>0.2727272727272727</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="G7">
-        <v>0.2727272727272727</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="H7">
-        <v>0.1818181818181818</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="I7">
-        <v>0.1818181818181818</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="J7">
         <v>0.1818181818181818</v>
@@ -781,19 +859,25 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="N7">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O7">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="P7">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="Q7">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="R7">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="S7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -803,38 +887,38 @@
       <c r="C8">
         <v>24</v>
       </c>
-      <c r="D8">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="E8">
-        <v>0.09090909090909091</v>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>0.1818181818181818</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="G8">
-        <v>0.1818181818181818</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="H8">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I8">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="J8">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K8">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L8">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -845,8 +929,14 @@
       <c r="Q8">
         <v>0</v>
       </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -856,17 +946,17 @@
       <c r="C9">
         <v>35</v>
       </c>
-      <c r="D9">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="E9">
-        <v>0.09090909090909091</v>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>0.1818181818181818</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="G9">
-        <v>0.1818181818181818</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="H9">
         <v>0.1818181818181818</v>
@@ -878,19 +968,19 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="K9">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L9">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="M9">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -898,8 +988,14 @@
       <c r="Q9">
         <v>0</v>
       </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -909,26 +1005,26 @@
       <c r="C10">
         <v>48</v>
       </c>
-      <c r="D10">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="E10">
-        <v>0.09090909090909091</v>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>0.1818181818181818</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="G10">
-        <v>0.1818181818181818</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="H10">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -951,8 +1047,14 @@
       <c r="Q10">
         <v>0</v>
       </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -962,17 +1064,17 @@
       <c r="C11">
         <v>32</v>
       </c>
-      <c r="D11">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="E11">
-        <v>0.09090909090909091</v>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>0.1818181818181818</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="G11">
-        <v>0.1818181818181818</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="H11">
         <v>0.1818181818181818</v>
@@ -984,19 +1086,19 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="K11">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L11">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="M11">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1004,8 +1106,14 @@
       <c r="Q11">
         <v>0</v>
       </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1015,50 +1123,56 @@
       <c r="C12">
         <v>70</v>
       </c>
-      <c r="D12">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="E12">
-        <v>0.2727272727272727</v>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>0.2727272727272727</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="G12">
-        <v>0.2727272727272727</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="H12">
-        <v>0.2727272727272727</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="I12">
-        <v>0.2727272727272727</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="J12">
-        <v>0.2727272727272727</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="K12">
-        <v>0.1818181818181818</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="L12">
-        <v>0.1818181818181818</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="M12">
         <v>0.1818181818181818</v>
       </c>
       <c r="N12">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O12">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="P12">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="Q12">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="R12">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="S12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>